--- a/data/trans_orig/P34-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7901</v>
+        <v>7816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23520</v>
+        <v>23021</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0302755041170462</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01700295617136592</v>
+        <v>0.01682132549460195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05061705010479744</v>
+        <v>0.04954347126905073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>10219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5450</v>
+        <v>4869</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19048</v>
+        <v>19011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03365880023911938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01795027082670428</v>
+        <v>0.01603669691651209</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06274063196192697</v>
+        <v>0.06262039238732363</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -786,19 +786,19 @@
         <v>24286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15573</v>
+        <v>15947</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34525</v>
+        <v>35952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03161249248731432</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02027094583419304</v>
+        <v>0.02075733304153187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04493939884609419</v>
+        <v>0.04679714654520223</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>53423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40299</v>
+        <v>40779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69558</v>
+        <v>67495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.114973286817015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08672915518499566</v>
+        <v>0.08776079007955462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1496981316806671</v>
+        <v>0.1452570565161426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -836,19 +836,19 @@
         <v>19229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12784</v>
+        <v>12047</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28387</v>
+        <v>28692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06333692842457557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04210875188284364</v>
+        <v>0.03968203579723138</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0935038933072589</v>
+        <v>0.0945093781964943</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -857,19 +857,19 @@
         <v>72652</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57361</v>
+        <v>57882</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90200</v>
+        <v>91847</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0945679754984822</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07466410024030495</v>
+        <v>0.07534291570425318</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1174095299456342</v>
+        <v>0.1195533417688884</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>186676</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>163223</v>
+        <v>166037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>207478</v>
+        <v>209351</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4017485993960338</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3512746724732229</v>
+        <v>0.357332617782293</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4465168888545053</v>
+        <v>0.450548132907956</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>154</v>
@@ -907,19 +907,19 @@
         <v>158528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>140568</v>
+        <v>142298</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>174929</v>
+        <v>175535</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5221736765792618</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4630147676584345</v>
+        <v>0.4687143624484919</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5761986879639003</v>
+        <v>0.5781930567365772</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>333</v>
@@ -928,19 +928,19 @@
         <v>345203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>314639</v>
+        <v>319832</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>371105</v>
+        <v>374825</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4493373772840173</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4095526529128964</v>
+        <v>0.416312001768911</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.483051907681944</v>
+        <v>0.4878945595461711</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>210491</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>189471</v>
+        <v>186955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>235222</v>
+        <v>231810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.453002609669905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.40776489011371</v>
+        <v>0.4023491781651066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5062260388745672</v>
+        <v>0.49888380687365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -978,19 +978,19 @@
         <v>115617</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99121</v>
+        <v>100265</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132443</v>
+        <v>134218</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3808305947570432</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3264949809340836</v>
+        <v>0.3302614458990791</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.436252052026402</v>
+        <v>0.4421000367821917</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>314</v>
@@ -999,19 +999,19 @@
         <v>326108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>298166</v>
+        <v>296232</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>354311</v>
+        <v>351996</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4244821547301862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3881104664895157</v>
+        <v>0.3855928289935868</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.461192446738564</v>
+        <v>0.4581794535570305</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>6662</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2852</v>
+        <v>2878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13017</v>
+        <v>13972</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01825272467101914</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007814398987907291</v>
+        <v>0.007885646437531528</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03566199456248718</v>
+        <v>0.03827911575623619</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1124,19 +1124,19 @@
         <v>6877</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2854</v>
+        <v>3112</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14419</v>
+        <v>14488</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01854480991501497</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007694718988251022</v>
+        <v>0.00839199504091967</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03888225995554781</v>
+        <v>0.03906819608614034</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1145,19 +1145,19 @@
         <v>13540</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7749</v>
+        <v>7736</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22131</v>
+        <v>21960</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01839992603177748</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01053020984802943</v>
+        <v>0.01051358311723456</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03007458482226392</v>
+        <v>0.02984244176406152</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>47411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34424</v>
+        <v>34413</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63257</v>
+        <v>63076</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1298906047384753</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09431003027690664</v>
+        <v>0.09427886804969918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1733026661945246</v>
+        <v>0.1728056621668168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1195,19 +1195,19 @@
         <v>26295</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17803</v>
+        <v>17097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37987</v>
+        <v>37091</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07090467666937568</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04800519766717393</v>
+        <v>0.04610213140427349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1024326118203291</v>
+        <v>0.1000169857395232</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -1216,19 +1216,19 @@
         <v>73706</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58110</v>
+        <v>58182</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90161</v>
+        <v>92043</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1001636361364976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07896968568056402</v>
+        <v>0.07906762523354861</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1225249323506834</v>
+        <v>0.1250828960576762</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>118460</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>100614</v>
+        <v>99878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138227</v>
+        <v>135783</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3245386927758728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2756492647934482</v>
+        <v>0.2736318403715589</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3786953717752685</v>
+        <v>0.3719983398377435</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -1266,19 +1266,19 @@
         <v>139887</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>120998</v>
+        <v>121820</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159431</v>
+        <v>159296</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.377210475165059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3262756997092028</v>
+        <v>0.3284905194477322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4299111052376104</v>
+        <v>0.4295453977831079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>252</v>
@@ -1287,19 +1287,19 @@
         <v>258347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>233551</v>
+        <v>231948</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>284941</v>
+        <v>284166</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3510835395308361</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3173868382688506</v>
+        <v>0.3152088823992947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3872233107201811</v>
+        <v>0.3861710737056981</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>192476</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>172766</v>
+        <v>171806</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>212807</v>
+        <v>211702</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5273179778146327</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4733206730760817</v>
+        <v>0.4706890572425869</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5830177881852374</v>
+        <v>0.5799908010008369</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>191</v>
@@ -1337,19 +1337,19 @@
         <v>197788</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>180366</v>
+        <v>178097</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>216793</v>
+        <v>215981</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5333400382505504</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4863610609116272</v>
+        <v>0.4802443103033456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5845875747980676</v>
+        <v>0.5823987308336153</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>377</v>
@@ -1358,19 +1358,19 @@
         <v>390263</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>363176</v>
+        <v>362939</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>416502</v>
+        <v>418035</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5303528983008888</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4935427565967415</v>
+        <v>0.4932204467997164</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.566010721743008</v>
+        <v>0.5680934412715154</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>71709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56173</v>
+        <v>57693</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89093</v>
+        <v>87853</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1339648509076013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1049404882883774</v>
+        <v>0.1077812113312341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1664410706230718</v>
+        <v>0.1641238401578004</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1483,19 +1483,19 @@
         <v>9279</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4182</v>
+        <v>5033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16273</v>
+        <v>16678</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0556920465708353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02510224498886518</v>
+        <v>0.03020733688535054</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09766811547523761</v>
+        <v>0.1000963761382027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>78</v>
@@ -1504,19 +1504,19 @@
         <v>80988</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>64872</v>
+        <v>65525</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>98425</v>
+        <v>99529</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1153846461636157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09242385658126108</v>
+        <v>0.09335444132475365</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1402273120288205</v>
+        <v>0.141799688270194</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>125549</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>106567</v>
+        <v>105577</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>147434</v>
+        <v>146726</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2345462998250266</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1990856957023482</v>
+        <v>0.1972367703093514</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.275431818495991</v>
+        <v>0.2741090948869936</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -1554,19 +1554,19 @@
         <v>8482</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3811</v>
+        <v>4020</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15238</v>
+        <v>15361</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05090647750717667</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02287492936584275</v>
+        <v>0.02412777719308083</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09145501044061945</v>
+        <v>0.09219696739655746</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>131</v>
@@ -1575,19 +1575,19 @@
         <v>134030</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>112757</v>
+        <v>114966</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>155549</v>
+        <v>157975</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1909543328995221</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1606463467083512</v>
+        <v>0.1637930119817723</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2216123942641001</v>
+        <v>0.2250689617870196</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>222906</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201244</v>
+        <v>200923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>245912</v>
+        <v>246602</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4164264833966078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3759587099923283</v>
+        <v>0.3753576510148995</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4594049829683606</v>
+        <v>0.4606952218428346</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>111</v>
@@ -1625,19 +1625,19 @@
         <v>114504</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103420</v>
+        <v>101954</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126300</v>
+        <v>125871</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.687238084484889</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6207116367711665</v>
+        <v>0.6119108550398547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7580358536616173</v>
+        <v>0.7554576106308548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>328</v>
@@ -1646,19 +1646,19 @@
         <v>337410</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>311283</v>
+        <v>312581</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>362412</v>
+        <v>364847</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4807110716121769</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4434874841284751</v>
+        <v>0.445336925082381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5163313035754926</v>
+        <v>0.5198001636869967</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>115119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97662</v>
+        <v>97859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133327</v>
+        <v>136308</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2150623658707644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1824486836635039</v>
+        <v>0.1828181575718124</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.249077942390289</v>
+        <v>0.2546471195109036</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1696,19 +1696,19 @@
         <v>34350</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24478</v>
+        <v>24130</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.206163391437099</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1469138118495429</v>
+        <v>0.1448220199727747</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2720303307707922</v>
+        <v>0.2725692629048705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>151</v>
@@ -1717,19 +1717,19 @@
         <v>149469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>129078</v>
+        <v>128676</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171624</v>
+        <v>171466</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2129499493246853</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1838978508389923</v>
+        <v>0.18332609770276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2445146720588665</v>
+        <v>0.2442889758164231</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>115032</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>95975</v>
+        <v>96255</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>136773</v>
+        <v>138092</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09346867190493507</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07798444098799746</v>
+        <v>0.07821204311789288</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.111134020987675</v>
+        <v>0.1122065589125659</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1842,19 +1842,19 @@
         <v>19266</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12451</v>
+        <v>12352</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29714</v>
+        <v>30168</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02723179395449426</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01759958649050773</v>
+        <v>0.0174599796751475</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04200111377557782</v>
+        <v>0.04264269573687209</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>128</v>
@@ -1863,19 +1863,19 @@
         <v>134297</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>111376</v>
+        <v>114540</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157124</v>
+        <v>162762</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06929094120316526</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05746484054501416</v>
+        <v>0.05909705973633254</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08106830980270605</v>
+        <v>0.08397753294864049</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>214164</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190615</v>
+        <v>186699</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243540</v>
+        <v>243115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1740183515543521</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1548834761086784</v>
+        <v>0.1517017403304688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1978877342855733</v>
+        <v>0.1975422234340602</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -1913,19 +1913,19 @@
         <v>75084</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59869</v>
+        <v>59065</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92092</v>
+        <v>93713</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1061309453259565</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08462395232091485</v>
+        <v>0.08348836940570381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1301710735388624</v>
+        <v>0.1324619336512589</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>274</v>
@@ -1934,19 +1934,19 @@
         <v>289248</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>258160</v>
+        <v>259382</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>323066</v>
+        <v>324358</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1492381463783188</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1331980810067602</v>
+        <v>0.1338282710226259</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1666861247984979</v>
+        <v>0.167353006630181</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>496988</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>461918</v>
+        <v>463740</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>532508</v>
+        <v>531131</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4038255054604514</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3753295377421381</v>
+        <v>0.3768104390142165</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4326874400427885</v>
+        <v>0.4315682192185486</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>471</v>
@@ -1984,19 +1984,19 @@
         <v>482772</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>457506</v>
+        <v>459563</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>506333</v>
+        <v>509834</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6823937508215365</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6466814094072254</v>
+        <v>0.6495878554839646</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7156970650162487</v>
+        <v>0.7206467255021122</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>961</v>
@@ -2005,19 +2005,19 @@
         <v>979759</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>935088</v>
+        <v>927943</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1026849</v>
+        <v>1022993</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.505508257226683</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4824602266412393</v>
+        <v>0.4787735121402483</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5298041894333181</v>
+        <v>0.5278147653392065</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>404515</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>372512</v>
+        <v>371793</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>436481</v>
+        <v>434910</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3286874710802615</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3026832949226394</v>
+        <v>0.3020990970803863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3546612711006094</v>
+        <v>0.3533848982209016</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -2055,19 +2055,19 @@
         <v>130346</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110594</v>
+        <v>109933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>153842</v>
+        <v>154028</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1842435098980127</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1563234389513181</v>
+        <v>0.1553888034965673</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2174545566932808</v>
+        <v>0.2177169788354576</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>540</v>
@@ -2076,19 +2076,19 @@
         <v>534862</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>494565</v>
+        <v>495775</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>573777</v>
+        <v>577763</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2759626551918329</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2551715630110454</v>
+        <v>0.2557955880908592</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2960410263582837</v>
+        <v>0.2980974152724934</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>34790</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25504</v>
+        <v>24637</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48976</v>
+        <v>48920</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1007620755498493</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07386880847565315</v>
+        <v>0.07135722848933022</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1418509428082578</v>
+        <v>0.1416899505074383</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2201,19 +2201,19 @@
         <v>47296</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36071</v>
+        <v>35642</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61666</v>
+        <v>61898</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08371328170991808</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06384488675663755</v>
+        <v>0.06308516453543286</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.109147447164857</v>
+        <v>0.1095578351383802</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>79</v>
@@ -2222,19 +2222,19 @@
         <v>82086</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>65847</v>
+        <v>66520</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100828</v>
+        <v>101178</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09018005237635945</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07234001271891198</v>
+        <v>0.07307960458504321</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1107703870448253</v>
+        <v>0.1111553371729647</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>72010</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56553</v>
+        <v>57290</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87789</v>
+        <v>88202</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2085638422495363</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1637964312519299</v>
+        <v>0.1659319207270808</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2542651375098428</v>
+        <v>0.2554638552888607</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -2272,19 +2272,19 @@
         <v>67546</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52894</v>
+        <v>53633</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>84100</v>
+        <v>84838</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.119554682968315</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09362203231442726</v>
+        <v>0.09492837828013571</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1488554817476015</v>
+        <v>0.1501609174188152</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>132</v>
@@ -2293,19 +2293,19 @@
         <v>139555</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>117654</v>
+        <v>119038</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>162808</v>
+        <v>164367</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1533167089326532</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1292562137468203</v>
+        <v>0.1307763441927811</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1788624649292289</v>
+        <v>0.1805747289162652</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>141372</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>124688</v>
+        <v>122593</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>160021</v>
+        <v>159290</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4094603306280687</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.361137110617397</v>
+        <v>0.3550694905173988</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4634737645653286</v>
+        <v>0.4613570462465689</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>344</v>
@@ -2343,19 +2343,19 @@
         <v>365210</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>342926</v>
+        <v>341153</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>389434</v>
+        <v>387040</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6464130967999919</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6069718793430728</v>
+        <v>0.6038327750696024</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6892884757551303</v>
+        <v>0.6850511862467594</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>481</v>
@@ -2364,19 +2364,19 @@
         <v>506581</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>475221</v>
+        <v>474100</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>537010</v>
+        <v>535536</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5565346448696405</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5220825233846986</v>
+        <v>0.5208504379897471</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5899644767902992</v>
+        <v>0.5883448006857072</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>97093</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>80918</v>
+        <v>80486</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>113643</v>
+        <v>114052</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2812137515725456</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2343656763691486</v>
+        <v>0.2331152666947517</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3291484935578814</v>
+        <v>0.3303332604077911</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>82</v>
@@ -2414,19 +2414,19 @@
         <v>84927</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>67776</v>
+        <v>68939</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>104173</v>
+        <v>103042</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.150318938521775</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1199622869626453</v>
+        <v>0.1220213095467997</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1843838635257943</v>
+        <v>0.1823823731925675</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>178</v>
@@ -2435,19 +2435,19 @@
         <v>182020</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>159854</v>
+        <v>158276</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>206839</v>
+        <v>208553</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1999685938213468</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1756174272595302</v>
+        <v>0.1738838155561223</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2272357047933029</v>
+        <v>0.2291183749521208</v>
       </c>
     </row>
     <row r="28">
@@ -2552,19 +2552,19 @@
         <v>42423</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>32526</v>
+        <v>31457</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>57507</v>
+        <v>56906</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03425065427904569</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02626036125182286</v>
+        <v>0.02539698775311354</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04642832162190444</v>
+        <v>0.04594363975871422</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>43</v>
@@ -2573,19 +2573,19 @@
         <v>42423</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31166</v>
+        <v>30126</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>56964</v>
+        <v>56965</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02764600973764024</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02030969722827134</v>
+        <v>0.01963194742508668</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03712177773699039</v>
+        <v>0.03712248910996636</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>7159</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2893</v>
+        <v>3266</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13642</v>
+        <v>15062</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02419398435699687</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009777062718772857</v>
+        <v>0.01103797155494504</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04610384558720602</v>
+        <v>0.05089993667576034</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -2623,19 +2623,19 @@
         <v>33138</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23467</v>
+        <v>22410</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>45875</v>
+        <v>45284</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02675387784584594</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01894634538576781</v>
+        <v>0.01809252322815265</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03703724253522001</v>
+        <v>0.03656068039448579</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -2644,19 +2644,19 @@
         <v>40297</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30495</v>
+        <v>28507</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>55382</v>
+        <v>54816</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02626024679226194</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01987294836283474</v>
+        <v>0.01857697829769998</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03609112147928941</v>
+        <v>0.03572195384635871</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>55474</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>43281</v>
+        <v>44032</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>70863</v>
+        <v>68993</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1874738780813712</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1462653719569483</v>
+        <v>0.1488060487361724</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2394773456134006</v>
+        <v>0.2331597600888783</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>670</v>
@@ -2694,19 +2694,19 @@
         <v>677938</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>643710</v>
+        <v>643211</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>714300</v>
+        <v>712373</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5473365299206517</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5197028479067054</v>
+        <v>0.5192998732091748</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.576693589912212</v>
+        <v>0.5751381551137978</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>724</v>
@@ -2715,19 +2715,19 @@
         <v>733412</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>695884</v>
+        <v>695615</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>771873</v>
+        <v>771390</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4779432599479936</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4534873030775678</v>
+        <v>0.4533122745134843</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5030074399610933</v>
+        <v>0.502692651369091</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>233271</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>219214</v>
+        <v>219770</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>246538</v>
+        <v>245943</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.788332137561632</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7408242695046304</v>
+        <v>0.7427043756909413</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8331649196146629</v>
+        <v>0.8311567471408692</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>483</v>
@@ -2765,19 +2765,19 @@
         <v>485113</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>452192</v>
+        <v>452043</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>519167</v>
+        <v>519141</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3916589379544567</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3650793464750071</v>
+        <v>0.3649595669432127</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4191525302118287</v>
+        <v>0.4191313137619587</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>726</v>
@@ -2786,19 +2786,19 @@
         <v>718385</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>679454</v>
+        <v>679085</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>754605</v>
+        <v>757303</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4681504835221042</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4427802946793538</v>
+        <v>0.4425398217794706</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4917538396251412</v>
+        <v>0.4935120117193763</v>
       </c>
     </row>
     <row r="33">
@@ -2890,19 +2890,19 @@
         <v>242261</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>214716</v>
+        <v>212663</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>276538</v>
+        <v>274053</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0748452989157692</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06633545333844845</v>
+        <v>0.06570135268997855</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08543525649297268</v>
+        <v>0.0846673381707035</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>134</v>
@@ -2911,19 +2911,19 @@
         <v>135360</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>114190</v>
+        <v>115799</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>159987</v>
+        <v>161412</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04038052319805035</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03406522806370681</v>
+        <v>0.03454500680536043</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04772713811837507</v>
+        <v>0.04815219918711538</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>365</v>
@@ -2932,19 +2932,19 @@
         <v>377621</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>338425</v>
+        <v>339314</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>416235</v>
+        <v>419678</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05731137309262219</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05136264054660476</v>
+        <v>0.05149761395187961</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06317179530770507</v>
+        <v>0.06369433414521096</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>519716</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>477153</v>
+        <v>478028</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>564280</v>
+        <v>559730</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1605638841529021</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1474140677682703</v>
+        <v>0.1476844087287865</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1743317278683204</v>
+        <v>0.1729258488131501</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>220</v>
@@ -2982,19 +2982,19 @@
         <v>229773</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>199226</v>
+        <v>204152</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>260759</v>
+        <v>261611</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06854570753140073</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05943282007153251</v>
+        <v>0.060902382679605</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07778929312404123</v>
+        <v>0.07804361532373817</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>715</v>
@@ -3003,19 +3003,19 @@
         <v>749489</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>698092</v>
+        <v>699828</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>800624</v>
+        <v>802283</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1137497137524502</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1059492579140569</v>
+        <v>0.1062126469000162</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1215104207548244</v>
+        <v>0.121762192925501</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>1221875</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1164329</v>
+        <v>1167898</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1279704</v>
+        <v>1283767</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3774927373545678</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3597141087065323</v>
+        <v>0.3608167722152985</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3953585417439377</v>
+        <v>0.3966137565304077</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1888</v>
@@ -3053,19 +3053,19 @@
         <v>1938838</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1882771</v>
+        <v>1880818</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1997051</v>
+        <v>1989673</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5783929165225216</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5616669381562596</v>
+        <v>0.5610842151716187</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5957587239879963</v>
+        <v>0.5935578467828251</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3079</v>
@@ -3074,19 +3074,19 @@
         <v>3160714</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3086760</v>
+        <v>3088311</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3243138</v>
+        <v>3239817</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4797005354914012</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4684765615128292</v>
+        <v>0.4687119294848008</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4922100879754493</v>
+        <v>0.491705990662349</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>1252966</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1197949</v>
+        <v>1194565</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1314053</v>
+        <v>1308185</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.387098079576761</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3701007874124985</v>
+        <v>0.3690552256717158</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.405970760525767</v>
+        <v>0.40415780849302</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1029</v>
@@ -3124,19 +3124,19 @@
         <v>1048142</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>993981</v>
+        <v>994961</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1097775</v>
+        <v>1099405</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3126808527480273</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2965236659290225</v>
+        <v>0.2968159567423257</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3274875503390713</v>
+        <v>0.3279737200737917</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2286</v>
@@ -3145,19 +3145,19 @@
         <v>2301108</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2229650</v>
+        <v>2226771</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2376233</v>
+        <v>2374203</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3492383776635263</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3383932952724042</v>
+        <v>0.3379563101160823</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3606401904911217</v>
+        <v>0.3603319863435041</v>
       </c>
     </row>
     <row r="38">
@@ -3491,19 +3491,19 @@
         <v>9652</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4672</v>
+        <v>4778</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18313</v>
+        <v>17179</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02212784219027029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01071014673162468</v>
+        <v>0.01095434394646959</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04198233558079149</v>
+        <v>0.03938245830906625</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3512,19 +3512,19 @@
         <v>3766</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11217</v>
+        <v>10890</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01201765105218331</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003072259593155742</v>
+        <v>0.003108157265740441</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03578941890988888</v>
+        <v>0.03474589721744314</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3533,19 +3533,19 @@
         <v>13419</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6688</v>
+        <v>7258</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23358</v>
+        <v>24169</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01790080201556501</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008921741795282498</v>
+        <v>0.009682561824659435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03116023615801884</v>
+        <v>0.032241886078925</v>
       </c>
     </row>
     <row r="5">
@@ -3562,19 +3562,19 @@
         <v>62471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49708</v>
+        <v>48794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80036</v>
+        <v>78710</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1432165824730353</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1139578362173098</v>
+        <v>0.111862563502843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1834861448809293</v>
+        <v>0.1804467150954325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -3583,19 +3583,19 @@
         <v>24093</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15863</v>
+        <v>14932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37406</v>
+        <v>35883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0768730325152791</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05061607494220002</v>
+        <v>0.04764454353807364</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1193531125421317</v>
+        <v>0.1144919913366044</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -3604,19 +3604,19 @@
         <v>86563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71044</v>
+        <v>70478</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>108449</v>
+        <v>105292</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1154785459538696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09477544773774621</v>
+        <v>0.09401965584287315</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1446753287758445</v>
+        <v>0.1404629031254535</v>
       </c>
     </row>
     <row r="6">
@@ -3633,19 +3633,19 @@
         <v>222159</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>199196</v>
+        <v>199676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>246166</v>
+        <v>244169</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.509308645447324</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4566654667397944</v>
+        <v>0.4577666958541354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5643451712881159</v>
+        <v>0.5597668311329346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>176</v>
@@ -3654,19 +3654,19 @@
         <v>190862</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>170566</v>
+        <v>171656</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>207171</v>
+        <v>208683</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6089896138547546</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5442321371318197</v>
+        <v>0.5477098753616589</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6610296532343309</v>
+        <v>0.6658542085777233</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>383</v>
@@ -3675,19 +3675,19 @@
         <v>413021</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>386068</v>
+        <v>384553</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>442495</v>
+        <v>444459</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.550984955257572</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5150289169427094</v>
+        <v>0.5130078768865036</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5903055182719402</v>
+        <v>0.592925549776431</v>
       </c>
     </row>
     <row r="7">
@@ -3704,19 +3704,19 @@
         <v>141915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120852</v>
+        <v>118699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163140</v>
+        <v>162398</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3253469298893704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2770594458743456</v>
+        <v>0.272122692172745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3740042816618546</v>
+        <v>0.3723043963934458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -3725,19 +3725,19 @@
         <v>94686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77976</v>
+        <v>76857</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113621</v>
+        <v>114451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.302119702577783</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2488010757655593</v>
+        <v>0.2452294064408562</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3625334930090103</v>
+        <v>0.3651820709535694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>210</v>
@@ -3746,19 +3746,19 @@
         <v>236602</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>207906</v>
+        <v>208217</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>262865</v>
+        <v>263333</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3156356967729934</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2773543959510217</v>
+        <v>0.2777696895110294</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.350672052294165</v>
+        <v>0.3512962814863409</v>
       </c>
     </row>
     <row r="8">
@@ -3850,19 +3850,19 @@
         <v>7830</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2902</v>
+        <v>3108</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16602</v>
+        <v>16122</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01888001993353573</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006998685334111577</v>
+        <v>0.00749357333106052</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0400336911862609</v>
+        <v>0.03887643856441432</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>7830</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3691</v>
+        <v>3787</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16767</v>
+        <v>17196</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01047047837042936</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004935512822812461</v>
+        <v>0.005064481036551199</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02242165098953972</v>
+        <v>0.02299529729488777</v>
       </c>
     </row>
     <row r="10">
@@ -3913,19 +3913,19 @@
         <v>49304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36083</v>
+        <v>36588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66069</v>
+        <v>66042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.118889031824204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08700813732929602</v>
+        <v>0.0882248108549355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1593138535221998</v>
+        <v>0.1592488204376139</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3934,19 +3934,19 @@
         <v>27711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17980</v>
+        <v>17984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39131</v>
+        <v>38278</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08319614969074232</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05397986829463293</v>
+        <v>0.05399260951144509</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1174829771011669</v>
+        <v>0.1149219137132438</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -3955,19 +3955,19 @@
         <v>77016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60241</v>
+        <v>60506</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98510</v>
+        <v>97647</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1029907024333944</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08055787105040622</v>
+        <v>0.08091311369792126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.131735104409749</v>
+        <v>0.1305801435034967</v>
       </c>
     </row>
     <row r="11">
@@ -3984,19 +3984,19 @@
         <v>191973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>169597</v>
+        <v>168632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>214243</v>
+        <v>213986</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4629092462577981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4089539828247958</v>
+        <v>0.4066273112233106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5166095720549279</v>
+        <v>0.5159893274406309</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>171</v>
@@ -4005,19 +4005,19 @@
         <v>194039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174352</v>
+        <v>175251</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>213060</v>
+        <v>213535</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5825566866333596</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5234513756667797</v>
+        <v>0.5261484668576858</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6396610819602049</v>
+        <v>0.641089078328298</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>348</v>
@@ -4026,19 +4026,19 @@
         <v>386012</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>355987</v>
+        <v>353940</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>415981</v>
+        <v>413348</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5162026286959354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.476050624726621</v>
+        <v>0.4733132925605864</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5562785887774759</v>
+        <v>0.552757539801313</v>
       </c>
     </row>
     <row r="12">
@@ -4055,19 +4055,19 @@
         <v>165603</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>144641</v>
+        <v>144023</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>187997</v>
+        <v>189488</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3993217019844622</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3487766037805285</v>
+        <v>0.3472859717907502</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4533210194170712</v>
+        <v>0.4569163360100679</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>105</v>
@@ -4076,19 +4076,19 @@
         <v>111332</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>92642</v>
+        <v>92627</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128316</v>
+        <v>129521</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3342471636758981</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2781353090447842</v>
+        <v>0.2780907293741731</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3852372387744174</v>
+        <v>0.3888562254228696</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>250</v>
@@ -4097,19 +4097,19 @@
         <v>276934</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>251006</v>
+        <v>251220</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>304994</v>
+        <v>309964</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3703361905002409</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3356627113647064</v>
+        <v>0.3359489510785716</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4078593610098965</v>
+        <v>0.4145050862707864</v>
       </c>
     </row>
     <row r="13">
@@ -4201,19 +4201,19 @@
         <v>23722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15363</v>
+        <v>15389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34724</v>
+        <v>34285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03798464293566978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02459940198137088</v>
+        <v>0.02464135003485461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05560062174635712</v>
+        <v>0.05489789361691386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6008</v>
+        <v>7334</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007582779167786407</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0231850504229019</v>
+        <v>0.02830129745690352</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -4243,19 +4243,19 @@
         <v>25687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17114</v>
+        <v>16898</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38140</v>
+        <v>36502</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02906942134982994</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01936696123009042</v>
+        <v>0.01912325660284154</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04316164398625567</v>
+        <v>0.04130761018445307</v>
       </c>
     </row>
     <row r="15">
@@ -4272,19 +4272,19 @@
         <v>115879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>96746</v>
+        <v>97672</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>135491</v>
+        <v>136842</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1855473973704127</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1549115589239868</v>
+        <v>0.156393551711367</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.216950616922211</v>
+        <v>0.2191132031901918</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -4293,19 +4293,19 @@
         <v>16861</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9961</v>
+        <v>10295</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26861</v>
+        <v>26518</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06506747773060169</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03844175870607859</v>
+        <v>0.03972757025854567</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1036604531376436</v>
+        <v>0.1023345649215782</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>127</v>
@@ -4314,19 +4314,19 @@
         <v>132740</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>112119</v>
+        <v>111086</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>154739</v>
+        <v>156689</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1502171561577743</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1268814837491027</v>
+        <v>0.1257121392206323</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1751131779695649</v>
+        <v>0.1773197898608403</v>
       </c>
     </row>
     <row r="16">
@@ -4343,19 +4343,19 @@
         <v>347380</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>321338</v>
+        <v>319746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>373462</v>
+        <v>372067</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5562304963339266</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5145311336744863</v>
+        <v>0.5119819212365805</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5979933211566628</v>
+        <v>0.5957592686209137</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -4364,19 +4364,19 @@
         <v>176763</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>161894</v>
+        <v>160889</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>192248</v>
+        <v>191038</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6821469283691692</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6247639698941355</v>
+        <v>0.620885000210144</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7419028508724427</v>
+        <v>0.7372337841185969</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>496</v>
@@ -4385,19 +4385,19 @@
         <v>524144</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>494142</v>
+        <v>492788</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>555493</v>
+        <v>554813</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5931549724602363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5592027326589097</v>
+        <v>0.5576703877181627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6286321326259877</v>
+        <v>0.6278625431964004</v>
       </c>
     </row>
     <row r="17">
@@ -4414,19 +4414,19 @@
         <v>137544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116156</v>
+        <v>116587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>160803</v>
+        <v>162646</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2202374633599909</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1859914341895324</v>
+        <v>0.1866806011525186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2574797415340431</v>
+        <v>0.2604309258598022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -4435,19 +4435,19 @@
         <v>63539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49184</v>
+        <v>49869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77577</v>
+        <v>78356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2452028147324427</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1898050452397393</v>
+        <v>0.1924511478341004</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2993782801170653</v>
+        <v>0.3023833635050658</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -4456,19 +4456,19 @@
         <v>201083</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>172704</v>
+        <v>174711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>226793</v>
+        <v>228268</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2275584500321594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.195443198631758</v>
+        <v>0.1977139573994484</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.256653444151354</v>
+        <v>0.2583232807379812</v>
       </c>
     </row>
     <row r="18">
@@ -4560,19 +4560,19 @@
         <v>60142</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47566</v>
+        <v>46107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77224</v>
+        <v>75001</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05216638418624943</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04125869400815369</v>
+        <v>0.03999294605060025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06698381726992723</v>
+        <v>0.06505494183300618</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -4581,19 +4581,19 @@
         <v>10624</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5203</v>
+        <v>5397</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18375</v>
+        <v>18696</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01396882822015864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00684045841853133</v>
+        <v>0.007095657770213758</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02416016919295353</v>
+        <v>0.02458128618386895</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -4602,19 +4602,19 @@
         <v>70766</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56126</v>
+        <v>54528</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>87304</v>
+        <v>87942</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03698353218204881</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02933269619875757</v>
+        <v>0.02849746956963002</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04562684253444573</v>
+        <v>0.04596006876126023</v>
       </c>
     </row>
     <row r="20">
@@ -4631,19 +4631,19 @@
         <v>137989</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115993</v>
+        <v>116722</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160541</v>
+        <v>162548</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1196901189193575</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.100611132848247</v>
+        <v>0.1012433579298232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1392521103474463</v>
+        <v>0.1409928978585824</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>98</v>
@@ -4652,19 +4652,19 @@
         <v>108331</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90691</v>
+        <v>90112</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>128535</v>
+        <v>130488</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1424362537158829</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1192420739637234</v>
+        <v>0.1184817253650605</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1690009245420977</v>
+        <v>0.1715684362472278</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>229</v>
@@ -4673,19 +4673,19 @@
         <v>246320</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>215761</v>
+        <v>220710</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>277505</v>
+        <v>279935</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1287313046588279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1127605810216158</v>
+        <v>0.115347304014358</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1450291630106873</v>
+        <v>0.1462991190705022</v>
       </c>
     </row>
     <row r="21">
@@ -4702,19 +4702,19 @@
         <v>632026</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>597069</v>
+        <v>597695</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>667713</v>
+        <v>666338</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5482136162406571</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5178923956634061</v>
+        <v>0.518435672177881</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.579168326641526</v>
+        <v>0.5779761801124378</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>484</v>
@@ -4723,19 +4723,19 @@
         <v>515610</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>488571</v>
+        <v>489719</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>541560</v>
+        <v>541021</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6779349861438231</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6423843850762616</v>
+        <v>0.6438935804853371</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.712054901085741</v>
+        <v>0.7113469244804496</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1066</v>
@@ -4744,19 +4744,19 @@
         <v>1147635</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1106104</v>
+        <v>1106408</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1194862</v>
+        <v>1192574</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5997755633655035</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5780707939249661</v>
+        <v>0.5782296330722103</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6244570365539438</v>
+        <v>0.6232612650769841</v>
       </c>
     </row>
     <row r="22">
@@ -4773,19 +4773,19 @@
         <v>322726</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>293189</v>
+        <v>291510</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>353820</v>
+        <v>352401</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2799298806537359</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2543094966141989</v>
+        <v>0.2528531688465002</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3069004240368677</v>
+        <v>0.3056691949613591</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>113</v>
@@ -4794,19 +4794,19 @@
         <v>125994</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>105185</v>
+        <v>104909</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147590</v>
+        <v>147583</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1656599319201354</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1382990569005356</v>
+        <v>0.137936890355649</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1940551194957002</v>
+        <v>0.1940451515272364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>417</v>
@@ -4815,19 +4815,19 @@
         <v>448720</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>409237</v>
+        <v>411190</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>484308</v>
+        <v>487289</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2345095997936198</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2138747927659476</v>
+        <v>0.2148953171365975</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2531084868984009</v>
+        <v>0.2546664632749292</v>
       </c>
     </row>
     <row r="23">
@@ -4919,19 +4919,19 @@
         <v>34310</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24255</v>
+        <v>25075</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47609</v>
+        <v>47292</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06809282954696676</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04813781218258382</v>
+        <v>0.04976468671887317</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09448620013509529</v>
+        <v>0.09385821213652171</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -4940,19 +4940,19 @@
         <v>6376</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2234</v>
+        <v>2402</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13799</v>
+        <v>13856</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008440802247746793</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002957702940462979</v>
+        <v>0.003179616325456508</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01826754825987803</v>
+        <v>0.01834336052789713</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>38</v>
@@ -4961,19 +4961,19 @@
         <v>40686</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>29810</v>
+        <v>29275</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56010</v>
+        <v>54067</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0323096154651791</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0236725116724108</v>
+        <v>0.02324834293864537</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04447873390366607</v>
+        <v>0.04293604731925614</v>
       </c>
     </row>
     <row r="25">
@@ -4990,19 +4990,19 @@
         <v>71894</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57799</v>
+        <v>56347</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89366</v>
+        <v>88578</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1426833220515212</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1147099014352355</v>
+        <v>0.1118282934515814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1773597249638701</v>
+        <v>0.1757959535126187</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -5011,19 +5011,19 @@
         <v>83301</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65589</v>
+        <v>66205</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101291</v>
+        <v>101443</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1102763814143305</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08682856097501374</v>
+        <v>0.08764417699617479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1340930139913168</v>
+        <v>0.1342942941057109</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>144</v>
@@ -5032,19 +5032,19 @@
         <v>155195</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>130813</v>
+        <v>133972</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>179355</v>
+        <v>181542</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1232435050484947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1038818359602226</v>
+        <v>0.1063905795383335</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1424302957627229</v>
+        <v>0.1441668766713718</v>
       </c>
     </row>
     <row r="26">
@@ -5061,19 +5061,19 @@
         <v>263316</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>241277</v>
+        <v>239085</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>285510</v>
+        <v>284918</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5225889627374345</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4788490620923493</v>
+        <v>0.4744973984079582</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5666344995342615</v>
+        <v>0.5654597083922439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>443</v>
@@ -5082,19 +5082,19 @@
         <v>481382</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>453569</v>
+        <v>451215</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>510111</v>
+        <v>507186</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6372694956033894</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6004495079627005</v>
+        <v>0.5973335860903252</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6753020132501447</v>
+        <v>0.6714296614404165</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>694</v>
@@ -5103,19 +5103,19 @@
         <v>744698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>707265</v>
+        <v>708093</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>779280</v>
+        <v>778139</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5913818981052759</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5616553971737767</v>
+        <v>0.5623126809132769</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.61884412172082</v>
+        <v>0.6179377960628939</v>
       </c>
     </row>
     <row r="27">
@@ -5132,19 +5132,19 @@
         <v>134349</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>114943</v>
+        <v>117040</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>154648</v>
+        <v>156512</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2666348856640776</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2281209735952104</v>
+        <v>0.2322825054296263</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.306920066602967</v>
+        <v>0.3106210624204276</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>171</v>
@@ -5153,19 +5153,19 @@
         <v>184323</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>161798</v>
+        <v>159843</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>209789</v>
+        <v>210209</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2440133207345333</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2141930471720261</v>
+        <v>0.2116060186771902</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2777252937060682</v>
+        <v>0.2782812499637686</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>302</v>
@@ -5174,19 +5174,19 @@
         <v>318672</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>287083</v>
+        <v>286686</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>349548</v>
+        <v>353174</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2530649813810503</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2279789237756647</v>
+        <v>0.2276640150038124</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.27758413035817</v>
+        <v>0.2804634909760942</v>
       </c>
     </row>
     <row r="28">
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9955</v>
+        <v>10620</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007558268268532003</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03742658558913359</v>
+        <v>0.03992525953600021</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5298</v>
+        <v>6592</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0009629459785652991</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.004804016753772945</v>
+        <v>0.005977364816754083</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11104</v>
+        <v>12004</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002244543668858067</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008112030923912347</v>
+        <v>0.008769412402259575</v>
       </c>
     </row>
     <row r="30">
@@ -5349,19 +5349,19 @@
         <v>23597</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16034</v>
+        <v>15116</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34889</v>
+        <v>32731</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08871430389860856</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06028197478556625</v>
+        <v>0.05682890150942422</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.131170818028871</v>
+        <v>0.1230548886082079</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>66</v>
@@ -5370,19 +5370,19 @@
         <v>69131</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>53733</v>
+        <v>53778</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>86170</v>
+        <v>87959</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06268574999738902</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04872297656657152</v>
+        <v>0.04876437495240685</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07813564532471783</v>
+        <v>0.0797580199006066</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>90</v>
@@ -5391,19 +5391,19 @@
         <v>92728</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>75848</v>
+        <v>75861</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>111480</v>
+        <v>111924</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06774359752854162</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0554116972770085</v>
+        <v>0.05542156926950866</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08144345256953421</v>
+        <v>0.08176765479429242</v>
       </c>
     </row>
     <row r="31">
@@ -5420,19 +5420,19 @@
         <v>71062</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>57719</v>
+        <v>56078</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>86136</v>
+        <v>85472</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2671655711872861</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2170026930791395</v>
+        <v>0.2108299870263646</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3238366756792625</v>
+        <v>0.3213419035922744</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>542</v>
@@ -5441,19 +5441,19 @@
         <v>577071</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>543345</v>
+        <v>542068</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>614167</v>
+        <v>607217</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.523268730566169</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4926873393549005</v>
+        <v>0.4915289917286053</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5569061573076087</v>
+        <v>0.5506035576342646</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>613</v>
@@ -5462,19 +5462,19 @@
         <v>648133</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>611567</v>
+        <v>611294</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>686082</v>
+        <v>685203</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4735029718805061</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4467892138019759</v>
+        <v>0.4465892016275535</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.501227346964194</v>
+        <v>0.5005848828720524</v>
       </c>
     </row>
     <row r="32">
@@ -5491,19 +5491,19 @@
         <v>169316</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>154027</v>
+        <v>153279</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>184170</v>
+        <v>185520</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6365618566455733</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5790803308539839</v>
+        <v>0.5762698287590972</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6924058797090162</v>
+        <v>0.6974837930538889</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>429</v>
@@ -5512,19 +5512,19 @@
         <v>455556</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>418860</v>
+        <v>421547</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>489644</v>
+        <v>488725</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4130825734578767</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3798082357993898</v>
+        <v>0.3822447674788036</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.443992478166328</v>
+        <v>0.4431590419704891</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>597</v>
@@ -5533,19 +5533,19 @@
         <v>624872</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>586692</v>
+        <v>588376</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>660163</v>
+        <v>660995</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4565088869220942</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4286160591219659</v>
+        <v>0.42984662983885</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4822912665434231</v>
+        <v>0.4828990310369634</v>
       </c>
     </row>
     <row r="33">
@@ -5637,19 +5637,19 @@
         <v>137666</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>115647</v>
+        <v>115961</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>164399</v>
+        <v>162378</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04051186889091084</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03403210636910789</v>
+        <v>0.03412444437294728</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04837858670940842</v>
+        <v>0.04778401296986445</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>22</v>
@@ -5658,19 +5658,19 @@
         <v>23793</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>15490</v>
+        <v>15320</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>36180</v>
+        <v>35091</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006751101471885563</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004395203792299678</v>
+        <v>0.004346752700832984</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01026555328107217</v>
+        <v>0.009956743379968503</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>154</v>
@@ -5679,19 +5679,19 @@
         <v>161460</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>135359</v>
+        <v>137708</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>186706</v>
+        <v>189320</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02332373277719427</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0195533401763312</v>
+        <v>0.01989262699840873</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0269707423332513</v>
+        <v>0.02734832757969077</v>
       </c>
     </row>
     <row r="35">
@@ -5708,19 +5708,19 @@
         <v>461133</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>421988</v>
+        <v>421216</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>501573</v>
+        <v>500685</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1357005030447232</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1241808881295321</v>
+        <v>0.1239538229044277</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1476009834865096</v>
+        <v>0.1473396925028199</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>303</v>
@@ -5729,19 +5729,19 @@
         <v>329427</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>295927</v>
+        <v>295411</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>363613</v>
+        <v>365791</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09347112155917202</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08396581697586424</v>
+        <v>0.08381928462893566</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.103170940345207</v>
+        <v>0.1037888259584449</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>737</v>
@@ -5750,19 +5750,19 @@
         <v>790561</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>737417</v>
+        <v>736469</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>844784</v>
+        <v>848922</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1142008627088617</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1065239487792614</v>
+        <v>0.1063870009393544</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1220337248089536</v>
+        <v>0.1226315066792529</v>
       </c>
     </row>
     <row r="36">
@@ -5779,19 +5779,19 @@
         <v>1727916</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1672182</v>
+        <v>1669497</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1783524</v>
+        <v>1790880</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5084845432137108</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4920832107080234</v>
+        <v>0.4912930319102859</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.524848525519826</v>
+        <v>0.5270130911538301</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1980</v>
@@ -5800,19 +5800,19 @@
         <v>2135726</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2079801</v>
+        <v>2072096</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2194557</v>
+        <v>2196963</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6059868749776705</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5901188910699313</v>
+        <v>0.587932658279652</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6226795338467827</v>
+        <v>0.6233621357871358</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3600</v>
@@ -5821,19 +5821,19 @@
         <v>3863642</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3782753</v>
+        <v>3771692</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3960575</v>
+        <v>3946266</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5581245093010716</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5464397005838368</v>
+        <v>0.5448418767669773</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5721269694329142</v>
+        <v>0.5700600335707461</v>
       </c>
     </row>
     <row r="37">
@@ -5850,19 +5850,19 @@
         <v>1071453</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1014742</v>
+        <v>1013996</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1126028</v>
+        <v>1121929</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3153030848506552</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2986143562781441</v>
+        <v>0.2983948726426327</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3313632815600729</v>
+        <v>0.3301569754587069</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>961</v>
@@ -5871,19 +5871,19 @@
         <v>1035430</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>983777</v>
+        <v>976295</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1094308</v>
+        <v>1091817</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2937909019912719</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2791351007259331</v>
+        <v>0.2770121422875192</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3104969872102117</v>
+        <v>0.3097902176950755</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1957</v>
@@ -5892,19 +5892,19 @@
         <v>2106883</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2024020</v>
+        <v>2025890</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2187014</v>
+        <v>2188503</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3043508952128725</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2923809230202151</v>
+        <v>0.2926510393330923</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.315926251620344</v>
+        <v>0.3161413757905352</v>
       </c>
     </row>
     <row r="38">
@@ -6238,19 +6238,19 @@
         <v>8275</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3819</v>
+        <v>3137</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16814</v>
+        <v>16164</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01937530635238204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008940462178970402</v>
+        <v>0.007344627181138873</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03936788974272669</v>
+        <v>0.03784471348789438</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -6272,19 +6272,19 @@
         <v>8275</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3343</v>
+        <v>3845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16227</v>
+        <v>16562</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01074934447723913</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00434217243555297</v>
+        <v>0.004994237739098181</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02107842633024573</v>
+        <v>0.02151318433863015</v>
       </c>
     </row>
     <row r="5">
@@ -6301,19 +6301,19 @@
         <v>34674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24981</v>
+        <v>24354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47719</v>
+        <v>47533</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0811818893492427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05848838181421395</v>
+        <v>0.0570215926232617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1117258576797154</v>
+        <v>0.1112892848243057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -6322,19 +6322,19 @@
         <v>26216</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17217</v>
+        <v>17771</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36856</v>
+        <v>37674</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07648825971919603</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05023498948197414</v>
+        <v>0.05185104166976064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1075333595769628</v>
+        <v>0.1099211341675471</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -6343,19 +6343,19 @@
         <v>60889</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46699</v>
+        <v>47196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77729</v>
+        <v>77113</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0790922671513544</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.060660042857533</v>
+        <v>0.06130569439398358</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1009660707268925</v>
+        <v>0.1001659172648078</v>
       </c>
     </row>
     <row r="6">
@@ -6372,19 +6372,19 @@
         <v>191348</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>169950</v>
+        <v>171583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>211920</v>
+        <v>213777</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4480079317719426</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3979071519331278</v>
+        <v>0.4017308190700907</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4961721006993147</v>
+        <v>0.5005217425247847</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>207</v>
@@ -6393,19 +6393,19 @@
         <v>212022</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>191143</v>
+        <v>193682</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>227604</v>
+        <v>229234</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6186119547328809</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5576932176039183</v>
+        <v>0.5651005580811196</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6640740974557159</v>
+        <v>0.668829376038433</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>384</v>
@@ -6414,19 +6414,19 @@
         <v>403371</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>374847</v>
+        <v>372675</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>432995</v>
+        <v>432326</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5239615074750764</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4869097648041521</v>
+        <v>0.4840891414238176</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5624419930514601</v>
+        <v>0.5615731976205445</v>
       </c>
     </row>
     <row r="7">
@@ -6443,19 +6443,19 @@
         <v>192812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>171415</v>
+        <v>170463</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>213473</v>
+        <v>213451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4514348725264327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4013383801717779</v>
+        <v>0.3991088063351114</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4998084748669104</v>
+        <v>0.4997584272044762</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -6464,19 +6464,19 @@
         <v>104501</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90348</v>
+        <v>86712</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124879</v>
+        <v>122074</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3048997855479231</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2636069508358667</v>
+        <v>0.2529970484026424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3643556853100385</v>
+        <v>0.3561717607152786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>273</v>
@@ -6485,19 +6485,19 @@
         <v>297313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>268770</v>
+        <v>270016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>325677</v>
+        <v>326180</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3861968808963301</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3491207346884254</v>
+        <v>0.3507397536819166</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4230400978120177</v>
+        <v>0.4236936707203057</v>
       </c>
     </row>
     <row r="8">
@@ -6589,19 +6589,19 @@
         <v>5972</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2050</v>
+        <v>1863</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13922</v>
+        <v>13243</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01603329213133719</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005504396652758741</v>
+        <v>0.00500270305303287</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03738027741583903</v>
+        <v>0.03555738330886894</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6143</v>
+        <v>6801</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004771959598567972</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01654415194918784</v>
+        <v>0.01831426659385876</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -6631,19 +6631,19 @@
         <v>7744</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3370</v>
+        <v>3175</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17154</v>
+        <v>15731</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.010411057280995</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00453081380081513</v>
+        <v>0.004268656539654374</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02306357890342408</v>
+        <v>0.02115009997835699</v>
       </c>
     </row>
     <row r="10">
@@ -6660,19 +6660,19 @@
         <v>43427</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30902</v>
+        <v>32040</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56639</v>
+        <v>57701</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1165997645829662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08297098770547288</v>
+        <v>0.08602589896735879</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1520729438493776</v>
+        <v>0.1549243252745608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -6681,19 +6681,19 @@
         <v>41519</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31100</v>
+        <v>30355</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56717</v>
+        <v>55577</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1118093540225344</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08375265566303321</v>
+        <v>0.0817464806246814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1527397151195563</v>
+        <v>0.1496696698478665</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -6702,19 +6702,19 @@
         <v>84946</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68660</v>
+        <v>69171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104207</v>
+        <v>105884</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1142081459071181</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09231179785910934</v>
+        <v>0.09299853147513965</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1401044395904671</v>
+        <v>0.1423586086854479</v>
       </c>
     </row>
     <row r="11">
@@ -6731,19 +6731,19 @@
         <v>143986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>124634</v>
+        <v>125651</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163530</v>
+        <v>163343</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3865940983224401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3346354446502692</v>
+        <v>0.337367135104243</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4390695518936515</v>
+        <v>0.4385673137900626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>171</v>
@@ -6752,19 +6752,19 @@
         <v>182791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160456</v>
+        <v>162730</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>201563</v>
+        <v>202328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4922555234685143</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4321073145606459</v>
+        <v>0.438232990319414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5428096694030234</v>
+        <v>0.5448707488999814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>305</v>
@@ -6773,19 +6773,19 @@
         <v>326777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>298021</v>
+        <v>299546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>353653</v>
+        <v>354313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4393457016575207</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4006834117314219</v>
+        <v>0.4027336739524675</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.475479403625945</v>
+        <v>0.4763673614161288</v>
       </c>
     </row>
     <row r="12">
@@ -6802,19 +6802,19 @@
         <v>179062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>159322</v>
+        <v>159988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>198818</v>
+        <v>198355</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4807728449632566</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4277712580605771</v>
+        <v>0.4295582377311901</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5338165490686805</v>
+        <v>0.5325718066994426</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>138</v>
@@ -6823,19 +6823,19 @@
         <v>145252</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>125523</v>
+        <v>125964</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165882</v>
+        <v>165952</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3911631629103833</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3380331161073157</v>
+        <v>0.3392222423919378</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4467213693775325</v>
+        <v>0.4469097192885083</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>309</v>
@@ -6844,19 +6844,19 @@
         <v>324315</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>296649</v>
+        <v>299109</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>352462</v>
+        <v>355762</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4360350951543662</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3988389005351367</v>
+        <v>0.4021467808217409</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4738783494753755</v>
+        <v>0.4783153491861776</v>
       </c>
     </row>
     <row r="13">
@@ -6948,19 +6948,19 @@
         <v>15186</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8674</v>
+        <v>9014</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25217</v>
+        <v>25370</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0295319095413146</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01686762342030045</v>
+        <v>0.01752953530989487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04903798436809891</v>
+        <v>0.04933610739783751</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4093</v>
+        <v>4496</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005394184872958545</v>
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02494410245402558</v>
+        <v>0.02740206627968833</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -6990,19 +6990,19 @@
         <v>16071</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8578</v>
+        <v>8845</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26791</v>
+        <v>25123</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02369279855592487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01264574003466342</v>
+        <v>0.01303948755748339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03949549821575798</v>
+        <v>0.03703774468863019</v>
       </c>
     </row>
     <row r="15">
@@ -7019,19 +7019,19 @@
         <v>59868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47163</v>
+        <v>44016</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>75413</v>
+        <v>75381</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1164232115412156</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09171616470098279</v>
+        <v>0.08559516596357494</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1466519115437067</v>
+        <v>0.146590433544839</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -7040,19 +7040,19 @@
         <v>8867</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4242</v>
+        <v>4639</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>16619</v>
+        <v>16521</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05403655086989403</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02585025977759077</v>
+        <v>0.0282697381743674</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1012803366900903</v>
+        <v>0.1006825520079998</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>66</v>
@@ -7061,19 +7061,19 @@
         <v>68735</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>54092</v>
+        <v>53320</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>85313</v>
+        <v>87497</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1013313733222943</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0797440298287875</v>
+        <v>0.07860563917178696</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1257710658378682</v>
+        <v>0.1289902005517717</v>
       </c>
     </row>
     <row r="16">
@@ -7090,19 +7090,19 @@
         <v>291035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>269271</v>
+        <v>269036</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>315002</v>
+        <v>313985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5659637646730463</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5236408284642852</v>
+        <v>0.5231823023949701</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6125713842736851</v>
+        <v>0.6105943389100705</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -7111,19 +7111,19 @@
         <v>102639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88934</v>
+        <v>88175</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115310</v>
+        <v>115619</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6254978899357437</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.541980736981818</v>
+        <v>0.5373563816164428</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7027218270408349</v>
+        <v>0.7046020059092839</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>378</v>
@@ -7132,19 +7132,19 @@
         <v>393674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>366358</v>
+        <v>369660</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>420634</v>
+        <v>422911</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.580365551486147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5400956750631596</v>
+        <v>0.5449631878564241</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6201099771617452</v>
+        <v>0.6234678495114145</v>
       </c>
     </row>
     <row r="17">
@@ -7161,19 +7161,19 @@
         <v>148140</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127416</v>
+        <v>127152</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>170129</v>
+        <v>169049</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2880811142444235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2477800565871743</v>
+        <v>0.2472672474145381</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3308427941278836</v>
+        <v>0.3287430480683847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -7182,19 +7182,19 @@
         <v>51700</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40707</v>
+        <v>39246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65751</v>
+        <v>66084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3150713743214036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2480764544551811</v>
+        <v>0.2391731739793756</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4006958964240048</v>
+        <v>0.4027272560224261</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>188</v>
@@ -7203,19 +7203,19 @@
         <v>199840</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177585</v>
+        <v>174903</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>225931</v>
+        <v>222195</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2946102766356339</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2618014490305514</v>
+        <v>0.2578465894457597</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3330737589155324</v>
+        <v>0.3275663391131408</v>
       </c>
     </row>
     <row r="18">
@@ -7307,19 +7307,19 @@
         <v>35311</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25157</v>
+        <v>24810</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48730</v>
+        <v>47637</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03080982975426859</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02195070292603916</v>
+        <v>0.02164729121993075</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04251843662139375</v>
+        <v>0.04156510370129023</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -7328,19 +7328,19 @@
         <v>7492</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3503</v>
+        <v>3179</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13448</v>
+        <v>13938</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009107367528934044</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004257723158485661</v>
+        <v>0.003864873501211726</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01634803976705453</v>
+        <v>0.01694272603062211</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -7349,19 +7349,19 @@
         <v>42803</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31937</v>
+        <v>31877</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58063</v>
+        <v>57338</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02174142112146775</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01622229673642842</v>
+        <v>0.01619205368013854</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02949285711059985</v>
+        <v>0.02912446173760579</v>
       </c>
     </row>
     <row r="20">
@@ -7378,19 +7378,19 @@
         <v>151793</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>130094</v>
+        <v>129063</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177134</v>
+        <v>175866</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1324450884531265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1135123379019369</v>
+        <v>0.1126123701107523</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1545561340084776</v>
+        <v>0.1534495870558255</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -7399,19 +7399,19 @@
         <v>91192</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74264</v>
+        <v>74525</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111766</v>
+        <v>112074</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1108543368776095</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0902768688777871</v>
+        <v>0.09059338246532161</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1358644173940306</v>
+        <v>0.1362382378162068</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>228</v>
@@ -7420,19 +7420,19 @@
         <v>242985</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>216966</v>
+        <v>215405</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>273317</v>
+        <v>274752</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.123423358294439</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1102071947413233</v>
+        <v>0.1094142732048716</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.138830562035621</v>
+        <v>0.1395590908615516</v>
       </c>
     </row>
     <row r="21">
@@ -7449,19 +7449,19 @@
         <v>587279</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>553392</v>
+        <v>553279</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>623123</v>
+        <v>619086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5124234212497958</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.482855203261629</v>
+        <v>0.4827571010846841</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5436984960079734</v>
+        <v>0.5401764289685133</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>545</v>
@@ -7470,19 +7470,19 @@
         <v>558870</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>529773</v>
+        <v>533168</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>585577</v>
+        <v>586115</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6793711328820624</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6439996772939892</v>
+        <v>0.6481274914859131</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7118355181229298</v>
+        <v>0.7124897149027171</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1109</v>
@@ -7491,19 +7491,19 @@
         <v>1146150</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1103612</v>
+        <v>1103701</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1192728</v>
+        <v>1187286</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.582182790194812</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5605758840170071</v>
+        <v>0.5606210163388418</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6058416723072297</v>
+        <v>0.6030775531262786</v>
       </c>
     </row>
     <row r="22">
@@ -7520,19 +7520,19 @@
         <v>371699</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>343186</v>
+        <v>342628</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>403887</v>
+        <v>405850</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3243216605428091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2994431562830671</v>
+        <v>0.2989557549995979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3524066418159848</v>
+        <v>0.3541192292692667</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -7541,19 +7541,19 @@
         <v>165075</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>141418</v>
+        <v>141343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>190268</v>
+        <v>188628</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2006671627113941</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1719094086135542</v>
+        <v>0.1718184610648228</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2312926458271826</v>
+        <v>0.2292992873274198</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>516</v>
@@ -7562,19 +7562,19 @@
         <v>536774</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>496261</v>
+        <v>499679</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>576465</v>
+        <v>578787</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2726524303892812</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2520740764269315</v>
+        <v>0.2538098852597605</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2928130324952568</v>
+        <v>0.2939927187403458</v>
       </c>
     </row>
     <row r="23">
@@ -7666,19 +7666,19 @@
         <v>20693</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12648</v>
+        <v>12755</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31414</v>
+        <v>31092</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0336760588403182</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02058335961647779</v>
+        <v>0.02075785468703106</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05112462556499336</v>
+        <v>0.05060138058180748</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -7687,19 +7687,19 @@
         <v>4302</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11766</v>
+        <v>9870</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005860831752909124</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001470875419861528</v>
+        <v>0.001466949184884527</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01602825080528923</v>
+        <v>0.01344470776322589</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -7708,19 +7708,19 @@
         <v>24995</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16713</v>
+        <v>16617</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36301</v>
+        <v>36579</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0185345528129936</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01239301173574798</v>
+        <v>0.01232173121451006</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0269181379589389</v>
+        <v>0.02712437817109564</v>
       </c>
     </row>
     <row r="25">
@@ -7737,19 +7737,19 @@
         <v>81238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65341</v>
+        <v>65011</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100227</v>
+        <v>99732</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1322106303500981</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1063387855331365</v>
+        <v>0.1058017580240867</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1631145105468049</v>
+        <v>0.1623085071699196</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -7758,19 +7758,19 @@
         <v>53745</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40650</v>
+        <v>41173</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68887</v>
+        <v>69556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07321227992431742</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05537341687556892</v>
+        <v>0.05608592522075047</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09383784263795568</v>
+        <v>0.09474955642157722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>126</v>
@@ -7779,19 +7779,19 @@
         <v>134983</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114890</v>
+        <v>113908</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>158795</v>
+        <v>159409</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1000942692013322</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08519472713742045</v>
+        <v>0.08446647916422782</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1177512835722651</v>
+        <v>0.1182065655982584</v>
       </c>
     </row>
     <row r="26">
@@ -7808,19 +7808,19 @@
         <v>315862</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>291063</v>
+        <v>291799</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>339421</v>
+        <v>338835</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5140500493390662</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4736902031744575</v>
+        <v>0.4748878900699601</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5523912166934001</v>
+        <v>0.5514366741812204</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>477</v>
@@ -7829,19 +7829,19 @@
         <v>497106</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>470706</v>
+        <v>470259</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>524145</v>
+        <v>521411</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6771613141476435</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6411982700118676</v>
+        <v>0.6405897766346218</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7139937120869869</v>
+        <v>0.7102694170516376</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>777</v>
@@ -7850,19 +7850,19 @@
         <v>812968</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>776756</v>
+        <v>774399</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>849434</v>
+        <v>847465</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6028413502859341</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5759890605885589</v>
+        <v>0.5742412808680153</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6298820154418633</v>
+        <v>0.6284223958170008</v>
       </c>
     </row>
     <row r="27">
@@ -7879,19 +7879,19 @@
         <v>196665</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>172025</v>
+        <v>175425</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>220078</v>
+        <v>220921</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3200632614705176</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.279961597965306</v>
+        <v>0.2854959998034974</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3581660207109781</v>
+        <v>0.3595382588327637</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>161</v>
@@ -7900,19 +7900,19 @@
         <v>178949</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>153259</v>
+        <v>153751</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>201508</v>
+        <v>204005</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.24376557417513</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2087701715998895</v>
+        <v>0.2094400990599547</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2744957371355901</v>
+        <v>0.2778970958041333</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>359</v>
@@ -7921,19 +7921,19 @@
         <v>375614</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>343450</v>
+        <v>345953</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>411505</v>
+        <v>414596</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2785298276997401</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2546788952374063</v>
+        <v>0.2565354172381264</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3051438027068485</v>
+        <v>0.3074358957110173</v>
       </c>
     </row>
     <row r="28">
@@ -8025,19 +8025,19 @@
         <v>5092</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1936</v>
+        <v>1916</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12108</v>
+        <v>10698</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01785932600818003</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006791104177147156</v>
+        <v>0.006719494945235339</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04246481346310054</v>
+        <v>0.03752119908228486</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10140</v>
+        <v>9726</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002471510108172018</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.009381224026724467</v>
+        <v>0.008998569792060441</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -8067,19 +8067,19 @@
         <v>7764</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3171</v>
+        <v>3563</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15594</v>
+        <v>16108</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.005683570449079074</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002321345212209406</v>
+        <v>0.002608470344963156</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01141640856788447</v>
+        <v>0.01179276957517953</v>
       </c>
     </row>
     <row r="30">
@@ -8096,19 +8096,19 @@
         <v>15771</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9126</v>
+        <v>8369</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24740</v>
+        <v>25470</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05531215557053323</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03200769078139581</v>
+        <v>0.02935260233898429</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08676559346281303</v>
+        <v>0.08932759099633515</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>41</v>
@@ -8117,19 +8117,19 @@
         <v>42369</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>31475</v>
+        <v>29937</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55792</v>
+        <v>55714</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0392004525210693</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02912138359037003</v>
+        <v>0.02769847492905638</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05161947224512981</v>
+        <v>0.05154762932312158</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>56</v>
@@ -8138,19 +8138,19 @@
         <v>58140</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>43643</v>
+        <v>42220</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>73259</v>
+        <v>73073</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04256361742542895</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.031950636654858</v>
+        <v>0.03090862102964487</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05363182591405497</v>
+        <v>0.05349554245380295</v>
       </c>
     </row>
     <row r="31">
@@ -8167,19 +8167,19 @@
         <v>124650</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>108591</v>
+        <v>108038</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>141831</v>
+        <v>143405</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4371652855444504</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3808454568110323</v>
+        <v>0.378906899370461</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4974208925255267</v>
+        <v>0.5029422866469049</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>544</v>
@@ -8188,19 +8188,19 @@
         <v>580711</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>545895</v>
+        <v>548748</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>611575</v>
+        <v>615167</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5372823352831231</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5050695293488161</v>
+        <v>0.5077097281209508</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5658373768129094</v>
+        <v>0.56916135618752</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>664</v>
@@ -8209,19 +8209,19 @@
         <v>705361</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>669065</v>
+        <v>668858</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>742682</v>
+        <v>742999</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5163838525482184</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4898120718338817</v>
+        <v>0.4896602171199548</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5437056844707475</v>
+        <v>0.5439381519170494</v>
       </c>
     </row>
     <row r="32">
@@ -8238,19 +8238,19 @@
         <v>139619</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>122346</v>
+        <v>121240</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>155930</v>
+        <v>156569</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4896632328768363</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4290846830258209</v>
+        <v>0.4252054196433284</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5468689060116285</v>
+        <v>0.5491103640676109</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>404</v>
@@ -8259,19 +8259,19 @@
         <v>455079</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>422812</v>
+        <v>422595</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>489510</v>
+        <v>488897</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4210457020876356</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3911918479850757</v>
+        <v>0.3909911873948705</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4529018006321657</v>
+        <v>0.4523343944580855</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>534</v>
@@ -8280,19 +8280,19 @@
         <v>594698</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>555626</v>
+        <v>556435</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>630003</v>
+        <v>633248</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4353689595772736</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4067651823502623</v>
+        <v>0.4073569714950044</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4612150768118615</v>
+        <v>0.4635907114749354</v>
       </c>
     </row>
     <row r="33">
@@ -8384,19 +8384,19 @@
         <v>90528</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>72635</v>
+        <v>71988</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>112253</v>
+        <v>111694</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02694735107986449</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02162103036487145</v>
+        <v>0.02142839969576008</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03341388206825106</v>
+        <v>0.03324759220171417</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>17</v>
@@ -8405,19 +8405,19 @@
         <v>17123</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10288</v>
+        <v>10577</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26705</v>
+        <v>28299</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004870358689026992</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002926376592640796</v>
+        <v>0.003008429082575417</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.007595869708187374</v>
+        <v>0.008049323312360693</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>101</v>
@@ -8426,19 +8426,19 @@
         <v>107651</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>88799</v>
+        <v>88184</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>131374</v>
+        <v>130440</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01565795449523468</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01291587836425939</v>
+        <v>0.01282634962482948</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01910843291417758</v>
+        <v>0.01897258659605107</v>
       </c>
     </row>
     <row r="35">
@@ -8455,19 +8455,19 @@
         <v>386771</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>350193</v>
+        <v>350653</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>424617</v>
+        <v>425279</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.115129035819986</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1042410269560045</v>
+        <v>0.1043777769753519</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.126394457814669</v>
+        <v>0.1265915427503028</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>256</v>
@@ -8476,19 +8476,19 @@
         <v>263907</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>234166</v>
+        <v>232949</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>294817</v>
+        <v>294394</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07506482614803557</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06660520112621431</v>
+        <v>0.06625904583726722</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08385656411520874</v>
+        <v>0.08373641269073825</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>614</v>
@@ -8497,19 +8497,19 @@
         <v>650678</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>604547</v>
+        <v>605346</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>701086</v>
+        <v>702000</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0946416096421283</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08793182460929769</v>
+        <v>0.08804791888585528</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.101973444243032</v>
+        <v>0.1021063253507396</v>
       </c>
     </row>
     <row r="36">
@@ -8526,19 +8526,19 @@
         <v>1654160</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1593179</v>
+        <v>1598789</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1710688</v>
+        <v>1710922</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4923891849081365</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4742369171759835</v>
+        <v>0.4759070518579234</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5092156815954297</v>
+        <v>0.5092852622655286</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2042</v>
@@ -8547,19 +8547,19 @@
         <v>2134140</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2071275</v>
+        <v>2071537</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2192587</v>
+        <v>2189071</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6070267322933248</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5891455420766754</v>
+        <v>0.5892199951750181</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6236511259852768</v>
+        <v>0.6226509523806742</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3617</v>
@@ -8568,19 +8568,19 @@
         <v>3788301</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3698702</v>
+        <v>3704690</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3865280</v>
+        <v>3870500</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5510107902884873</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5379786790396678</v>
+        <v>0.5388496054621971</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5622074945047906</v>
+        <v>0.5629667286901601</v>
       </c>
     </row>
     <row r="37">
@@ -8597,19 +8597,19 @@
         <v>1227997</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1170931</v>
+        <v>1169375</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1286259</v>
+        <v>1282607</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3655344281920129</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3485477869307166</v>
+        <v>0.3480844273343808</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3828771052790574</v>
+        <v>0.3817898544268557</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>996</v>
@@ -8618,19 +8618,19 @@
         <v>1100556</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1045367</v>
+        <v>1044641</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1156332</v>
+        <v>1159846</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3130380828696126</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2973400690455529</v>
+        <v>0.2971336019342968</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3289026700556507</v>
+        <v>0.3299020947402024</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2179</v>
@@ -8639,19 +8639,19 @@
         <v>2328554</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2245853</v>
+        <v>2249911</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2411552</v>
+        <v>2410424</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3386896455741497</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3266608525262661</v>
+        <v>0.327250951835319</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3507618273847695</v>
+        <v>0.3505977908391765</v>
       </c>
     </row>
     <row r="38">
@@ -8985,19 +8985,19 @@
         <v>11334</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5592</v>
+        <v>5677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20878</v>
+        <v>21148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02063672698141908</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01018216324992141</v>
+        <v>0.01033731295541342</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03801500985580219</v>
+        <v>0.03850734414150857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -9006,19 +9006,19 @@
         <v>8691</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4207</v>
+        <v>4040</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18453</v>
+        <v>17268</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01781763085789598</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008626147412340345</v>
+        <v>0.00828259160153791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03783201127173248</v>
+        <v>0.03540277646461178</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -9027,19 +9027,19 @@
         <v>20024</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11915</v>
+        <v>12269</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31672</v>
+        <v>31596</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01931070006251644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01149047609090809</v>
+        <v>0.01183179342449538</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03054373099278892</v>
+        <v>0.03047048988759368</v>
       </c>
     </row>
     <row r="5">
@@ -9056,19 +9056,19 @@
         <v>64150</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49072</v>
+        <v>50054</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84203</v>
+        <v>83402</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1168067617714565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08935239877897579</v>
+        <v>0.09114156562662148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1533205886450963</v>
+        <v>0.1518626814723836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -9077,19 +9077,19 @@
         <v>69111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56092</v>
+        <v>56435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85500</v>
+        <v>85945</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1416941843130151</v>
+        <v>0.141694184313015</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1150015949944544</v>
+        <v>0.1157052533810745</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1752949346721883</v>
+        <v>0.1762069869341415</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -9098,19 +9098,19 @@
         <v>133261</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110323</v>
+        <v>110962</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157098</v>
+        <v>158033</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1285131352990709</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1063924176618426</v>
+        <v>0.1070088605147115</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1515005580069662</v>
+        <v>0.1524027035478189</v>
       </c>
     </row>
     <row r="6">
@@ -9127,19 +9127,19 @@
         <v>205938</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>184876</v>
+        <v>184471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>230337</v>
+        <v>230198</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3749820963267945</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3366314357793188</v>
+        <v>0.3358938974427137</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4194088965137101</v>
+        <v>0.4191564112569722</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>312</v>
@@ -9148,19 +9148,19 @@
         <v>210065</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>191340</v>
+        <v>192481</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>228600</v>
+        <v>228968</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4306816255880818</v>
+        <v>0.4306816255880817</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3922904100537424</v>
+        <v>0.394629071406369</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.468681860423626</v>
+        <v>0.4694366453036446</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>527</v>
@@ -9169,19 +9169,19 @@
         <v>416003</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>388818</v>
+        <v>383905</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>449291</v>
+        <v>447226</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4011816553111006</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3749646558787844</v>
+        <v>0.3702269722481586</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4332829610367701</v>
+        <v>0.4312917975232332</v>
       </c>
     </row>
     <row r="7">
@@ -9198,19 +9198,19 @@
         <v>267773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>245279</v>
+        <v>243289</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>292853</v>
+        <v>290504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4875744149203298</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4466168404487</v>
+        <v>0.4429935881677252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5332405883808313</v>
+        <v>0.5289637757284353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>275</v>
@@ -9219,19 +9219,19 @@
         <v>199884</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>180382</v>
+        <v>180774</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>217845</v>
+        <v>218011</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4098065592410073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3698233009473233</v>
+        <v>0.3706283730396249</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4466325073017238</v>
+        <v>0.4469717839535987</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>542</v>
@@ -9240,19 +9240,19 @@
         <v>467657</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>436498</v>
+        <v>436567</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>497687</v>
+        <v>501284</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4509945093273122</v>
+        <v>0.4509945093273121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.420945923891286</v>
+        <v>0.4210125948701542</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4799553152356734</v>
+        <v>0.4834238853785969</v>
       </c>
     </row>
     <row r="8">
@@ -9344,19 +9344,19 @@
         <v>14197</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7431</v>
+        <v>8115</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23905</v>
+        <v>25671</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02959825870624566</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01549273803056642</v>
+        <v>0.01691859296743631</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04983669549403542</v>
+        <v>0.0535187917553214</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -9365,19 +9365,19 @@
         <v>4156</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>888</v>
+        <v>1518</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10590</v>
+        <v>11743</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.009871091815000161</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00210885394393257</v>
+        <v>0.003605604683456102</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02515141854893166</v>
+        <v>0.02788871504185225</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -9386,19 +9386,19 @@
         <v>18354</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10088</v>
+        <v>11545</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27738</v>
+        <v>29142</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02037656352274768</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01120010902978374</v>
+        <v>0.01281709273655896</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03079492952290975</v>
+        <v>0.03235362762238556</v>
       </c>
     </row>
     <row r="10">
@@ -9415,19 +9415,19 @@
         <v>70466</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56366</v>
+        <v>55251</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86329</v>
+        <v>88967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.146903930260426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1175100827454354</v>
+        <v>0.1151852235446148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.17997474800738</v>
+        <v>0.1854755252962074</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -9436,19 +9436,19 @@
         <v>48127</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37108</v>
+        <v>38096</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61307</v>
+        <v>60297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1143006425783674</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08813197511009095</v>
+        <v>0.0904770306113772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1456030990034406</v>
+        <v>0.1432047617200775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -9457,19 +9457,19 @@
         <v>118593</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99430</v>
+        <v>99967</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138909</v>
+        <v>139620</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1316631416240575</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1103891039281848</v>
+        <v>0.1109843794041931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1542192504722084</v>
+        <v>0.1550084624663529</v>
       </c>
     </row>
     <row r="11">
@@ -9486,19 +9486,19 @@
         <v>158241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>138111</v>
+        <v>135429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181716</v>
+        <v>180914</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3298956853663268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2879288640834871</v>
+        <v>0.2823374556093452</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3788336379450776</v>
+        <v>0.3771620629658505</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>220</v>
@@ -9507,19 +9507,19 @@
         <v>152329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>135442</v>
+        <v>136182</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167471</v>
+        <v>170061</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3617804080729856</v>
+        <v>0.3617804080729855</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3216720635452365</v>
+        <v>0.323429852205274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.397741908089321</v>
+        <v>0.4038920449138541</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>380</v>
@@ -9528,19 +9528,19 @@
         <v>310571</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>285891</v>
+        <v>283767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>340394</v>
+        <v>335284</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3448005723900001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3174004788255159</v>
+        <v>0.3150426978027822</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3779107615113676</v>
+        <v>0.3722375516017461</v>
       </c>
     </row>
     <row r="12">
@@ -9557,19 +9557,19 @@
         <v>236767</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>214688</v>
+        <v>212856</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>260044</v>
+        <v>261875</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4936021256670016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4475726211947547</v>
+        <v>0.4437543801113912</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5421305499083551</v>
+        <v>0.5459471986227117</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>298</v>
@@ -9578,19 +9578,19 @@
         <v>216442</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>200030</v>
+        <v>198638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>234046</v>
+        <v>234580</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5140478575336469</v>
+        <v>0.514047857533647</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4750695185011822</v>
+        <v>0.4717627840158714</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5558557138767949</v>
+        <v>0.5571247219923863</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>534</v>
@@ -9599,19 +9599,19 @@
         <v>453210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>422951</v>
+        <v>424145</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>484471</v>
+        <v>479780</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5031597224631946</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4695667634867636</v>
+        <v>0.4708923725207552</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5378671727922774</v>
+        <v>0.5326590976602928</v>
       </c>
     </row>
     <row r="13">
@@ -9703,19 +9703,19 @@
         <v>64765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50153</v>
+        <v>50193</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81207</v>
+        <v>82093</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1376427776262386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1065885464933377</v>
+        <v>0.1066729548100802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1725848136344783</v>
+        <v>0.1744689510935907</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4980</v>
+        <v>5500</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008277380400515982</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02677178364970808</v>
+        <v>0.02956997801029876</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>61</v>
@@ -9745,19 +9745,19 @@
         <v>66305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>51224</v>
+        <v>52018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85707</v>
+        <v>84517</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1009904690850681</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07801983270231093</v>
+        <v>0.07922950998678263</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1305418006906147</v>
+        <v>0.1287292931647553</v>
       </c>
     </row>
     <row r="15">
@@ -9774,19 +9774,19 @@
         <v>102532</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>85364</v>
+        <v>84225</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>122326</v>
+        <v>121511</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2179073681148412</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1814215122936665</v>
+        <v>0.1790002099945281</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2599752778514515</v>
+        <v>0.2582413910600215</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>39</v>
@@ -9795,19 +9795,19 @@
         <v>25164</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18297</v>
+        <v>18324</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33378</v>
+        <v>34695</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1352779984723811</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09836155902151388</v>
+        <v>0.09850938847454285</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1794353754521766</v>
+        <v>0.1865194629291945</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>140</v>
@@ -9816,19 +9816,19 @@
         <v>127696</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>108232</v>
+        <v>108021</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>149410</v>
+        <v>148966</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1944964930613405</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.164850702042615</v>
+        <v>0.164529835262219</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2275691008300517</v>
+        <v>0.2268931994369099</v>
       </c>
     </row>
     <row r="16">
@@ -9845,19 +9845,19 @@
         <v>184968</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>163552</v>
+        <v>162905</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>207641</v>
+        <v>207820</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3931047085196239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.347589618520462</v>
+        <v>0.3462153735828504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.441289981082032</v>
+        <v>0.4416713144646783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -9866,19 +9866,19 @@
         <v>100654</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90399</v>
+        <v>90219</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112306</v>
+        <v>113115</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5411060114968869</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.485978916623715</v>
+        <v>0.4850105168177911</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6037481439649895</v>
+        <v>0.6080982256029849</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>351</v>
@@ -9887,19 +9887,19 @@
         <v>285622</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>261895</v>
+        <v>260535</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>310188</v>
+        <v>310303</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4350370145114096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3988979549225551</v>
+        <v>0.3968266568618447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.472454719280901</v>
+        <v>0.4726297719997586</v>
       </c>
     </row>
     <row r="17">
@@ -9916,19 +9916,19 @@
         <v>118266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99804</v>
+        <v>100972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137244</v>
+        <v>137816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2513451457392964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.212109869496215</v>
+        <v>0.2145917683453367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2916782278378564</v>
+        <v>0.2928943478483879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>91</v>
@@ -9937,19 +9937,19 @@
         <v>58658</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48828</v>
+        <v>49077</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68665</v>
+        <v>69999</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.315338609630216</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2624950127279261</v>
+        <v>0.263835321205331</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3691358691034058</v>
+        <v>0.3763105723605365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -9958,19 +9958,19 @@
         <v>176923</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155819</v>
+        <v>156003</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199098</v>
+        <v>200878</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2694760233421819</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2373317242506556</v>
+        <v>0.2376119756723612</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3032504764314245</v>
+        <v>0.305962038569441</v>
       </c>
     </row>
     <row r="18">
@@ -10062,19 +10062,19 @@
         <v>88622</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69387</v>
+        <v>70400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109478</v>
+        <v>109490</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07936681561776446</v>
+        <v>0.07936681561776443</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06214034437079782</v>
+        <v>0.06304741848008495</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09804443738401336</v>
+        <v>0.09805486734700704</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -10083,19 +10083,19 @@
         <v>24768</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16916</v>
+        <v>17591</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33304</v>
+        <v>34688</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02892199393532303</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01975310007466822</v>
+        <v>0.02054068262240042</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03888916220315871</v>
+        <v>0.04050540408245282</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -10104,19 +10104,19 @@
         <v>113391</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93437</v>
+        <v>94683</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>138538</v>
+        <v>137162</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05747114932136172</v>
+        <v>0.05747114932136171</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04735781029238706</v>
+        <v>0.04798913614861732</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07021703765379472</v>
+        <v>0.06951930598555102</v>
       </c>
     </row>
     <row r="20">
@@ -10133,19 +10133,19 @@
         <v>278482</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247719</v>
+        <v>248659</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>313629</v>
+        <v>313478</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2493981031294751</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2218477613660243</v>
+        <v>0.2226898257314383</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2808749901888359</v>
+        <v>0.28073986582722</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>268</v>
@@ -10154,19 +10154,19 @@
         <v>202250</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180614</v>
+        <v>181871</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>225955</v>
+        <v>228352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2361679358085638</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2109024932879954</v>
+        <v>0.2123713862935039</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2638482721346562</v>
+        <v>0.2666467617889511</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>526</v>
@@ -10175,19 +10175,19 @@
         <v>480732</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>441010</v>
+        <v>441477</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521443</v>
+        <v>522286</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2436555250205099</v>
+        <v>0.2436555250205097</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2235228500060519</v>
+        <v>0.2237595741005566</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2642897145493761</v>
+        <v>0.2647169653015773</v>
       </c>
     </row>
     <row r="21">
@@ -10204,19 +10204,19 @@
         <v>402474</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>364994</v>
+        <v>368578</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>433105</v>
+        <v>439463</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3604414601393497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3268752800990178</v>
+        <v>0.3300850366637695</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3878730438028599</v>
+        <v>0.3935672188639552</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>651</v>
@@ -10225,19 +10225,19 @@
         <v>450924</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>425784</v>
+        <v>428327</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>478498</v>
+        <v>477992</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5265446784656297</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4971881818684762</v>
+        <v>0.5001572495324891</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5587427912005637</v>
+        <v>0.5581517168400468</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1053</v>
@@ -10246,19 +10246,19 @@
         <v>853399</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>810435</v>
+        <v>809369</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>899580</v>
+        <v>894435</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4325388631617235</v>
+        <v>0.4325388631617234</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4107629440828616</v>
+        <v>0.4102227911300479</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4559456674702794</v>
+        <v>0.4533379137924451</v>
       </c>
     </row>
     <row r="22">
@@ -10275,19 +10275,19 @@
         <v>347037</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>317461</v>
+        <v>316638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>382624</v>
+        <v>378825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3107936211134107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2843061605178854</v>
+        <v>0.2835697553406691</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3426638385355622</v>
+        <v>0.3392617856755195</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>272</v>
@@ -10296,19 +10296,19 @@
         <v>178441</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>158385</v>
+        <v>158368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>200140</v>
+        <v>199511</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2083653917904833</v>
+        <v>0.2083653917904834</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1849457957870272</v>
+        <v>0.1849260828178247</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2337032518287219</v>
+        <v>0.2329692883901025</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>643</v>
@@ -10317,19 +10317,19 @@
         <v>525478</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>486396</v>
+        <v>488164</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>566716</v>
+        <v>567026</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2663344624964051</v>
+        <v>0.266334462496405</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2465263216277861</v>
+        <v>0.2474224210101056</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2872360039343771</v>
+        <v>0.2873928737230819</v>
       </c>
     </row>
     <row r="23">
@@ -10421,19 +10421,19 @@
         <v>70603</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53962</v>
+        <v>53707</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>92216</v>
+        <v>89265</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1248525473928522</v>
+        <v>0.1248525473928523</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09542415591178872</v>
+        <v>0.09497478282108236</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1630725241458936</v>
+        <v>0.1578538298142126</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>44</v>
@@ -10442,19 +10442,19 @@
         <v>33264</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23594</v>
+        <v>24262</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43644</v>
+        <v>43819</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04022549742015116</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02853171399348066</v>
+        <v>0.02933949115113582</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05277881653086826</v>
+        <v>0.05298990884128453</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>102</v>
@@ -10463,19 +10463,19 @@
         <v>103867</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>83287</v>
+        <v>83191</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>128320</v>
+        <v>125915</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07459431381169278</v>
+        <v>0.07459431381169279</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05981414738413136</v>
+        <v>0.05974514315988414</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09215583946102127</v>
+        <v>0.09042894780499415</v>
       </c>
     </row>
     <row r="25">
@@ -10492,19 +10492,19 @@
         <v>167223</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>143011</v>
+        <v>144183</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>192935</v>
+        <v>191891</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2957130316630515</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2528962402756298</v>
+        <v>0.2549685661332783</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3411815815506792</v>
+        <v>0.3393352574203227</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>273</v>
@@ -10513,19 +10513,19 @@
         <v>189695</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>170556</v>
+        <v>169287</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>210744</v>
+        <v>209295</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2293964760319754</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2062512052403603</v>
+        <v>0.2047174642518192</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2548503681016532</v>
+        <v>0.253098571632718</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>426</v>
@@ -10534,19 +10534,19 @@
         <v>356918</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>325998</v>
+        <v>324156</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>389937</v>
+        <v>389457</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2563290173995303</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2341229058828676</v>
+        <v>0.232799618538009</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2800419196892027</v>
+        <v>0.2796974105804855</v>
       </c>
     </row>
     <row r="26">
@@ -10563,19 +10563,19 @@
         <v>193461</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>168594</v>
+        <v>165860</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>218039</v>
+        <v>217708</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3421105050096149</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2981376582709084</v>
+        <v>0.2933018229652827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3855742422505996</v>
+        <v>0.3849881652604967</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>582</v>
@@ -10584,19 +10584,19 @@
         <v>385726</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>360613</v>
+        <v>363310</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>409191</v>
+        <v>410184</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4664549457599353</v>
+        <v>0.4664549457599352</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.436086122382194</v>
+        <v>0.4393474073428517</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4948306242482381</v>
+        <v>0.4960319331747761</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>760</v>
@@ -10605,19 +10605,19 @@
         <v>579187</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>543143</v>
+        <v>546392</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>612895</v>
+        <v>616413</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4159560656165857</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3900704572675213</v>
+        <v>0.3924038802403024</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4401644568381983</v>
+        <v>0.4426907874800396</v>
       </c>
     </row>
     <row r="27">
@@ -10634,19 +10634,19 @@
         <v>134205</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>114821</v>
+        <v>116951</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>155325</v>
+        <v>157843</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2373239159344813</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2030464081547861</v>
+        <v>0.2068120550730017</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2746729138088683</v>
+        <v>0.2791241963752802</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>385</v>
@@ -10655,19 +10655,19 @@
         <v>218246</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>197926</v>
+        <v>197734</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>239035</v>
+        <v>236936</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2639230807879382</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2393506132276267</v>
+        <v>0.2391176174418633</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2890624967903475</v>
+        <v>0.2865247485552378</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>541</v>
@@ -10676,19 +10676,19 @@
         <v>352451</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>325334</v>
+        <v>327609</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>387410</v>
+        <v>385128</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2531206031721912</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2336458026015344</v>
+        <v>0.2352796687603787</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2782275016777866</v>
+        <v>0.276588636544206</v>
       </c>
     </row>
     <row r="28">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15198</v>
+        <v>13922</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01743418630963819</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06514212178508631</v>
+        <v>0.05967414531527142</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -10801,19 +10801,19 @@
         <v>5082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2309</v>
+        <v>2291</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10426</v>
+        <v>10267</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.006078550856969849</v>
+        <v>0.00607855085696985</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002761361751582367</v>
+        <v>0.002740134549965393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01246997974423819</v>
+        <v>0.01228014376377512</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -10822,19 +10822,19 @@
         <v>9149</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4083</v>
+        <v>4184</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19086</v>
+        <v>17854</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008556070624913606</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003817723907893562</v>
+        <v>0.003912903977830135</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0178481637483282</v>
+        <v>0.01669560931467509</v>
       </c>
     </row>
     <row r="30">
@@ -10851,19 +10851,19 @@
         <v>35627</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21042</v>
+        <v>20418</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>57302</v>
+        <v>55957</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1527049973949628</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09019017562302239</v>
+        <v>0.08751614377713467</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2456081909359353</v>
+        <v>0.2398409434005438</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>104</v>
@@ -10872,19 +10872,19 @@
         <v>75584</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61565</v>
+        <v>61786</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>93723</v>
+        <v>95999</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09040570014634015</v>
+        <v>0.09040570014634014</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07363859346919875</v>
+        <v>0.07390185521468286</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.112102654538238</v>
+        <v>0.1148250292241758</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>119</v>
@@ -10893,19 +10893,19 @@
         <v>111211</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>88981</v>
+        <v>89058</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>138274</v>
+        <v>136058</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1039978712851378</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08321028399155032</v>
+        <v>0.08328177045584223</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1293054856282563</v>
+        <v>0.127233456164344</v>
       </c>
     </row>
     <row r="31">
@@ -10922,19 +10922,19 @@
         <v>98122</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>75416</v>
+        <v>75452</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>122881</v>
+        <v>124708</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.420572024235305</v>
+        <v>0.4205720242353051</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3232476358139338</v>
+        <v>0.3234031430767578</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5266938635118826</v>
+        <v>0.534524013766723</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>542</v>
@@ -10943,19 +10943,19 @@
         <v>383682</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>354951</v>
+        <v>354203</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>412584</v>
+        <v>409682</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.4589232101161648</v>
+        <v>0.4589232101161647</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4245579095088062</v>
+        <v>0.4236631989328252</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.493492516685142</v>
+        <v>0.4900211781856547</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>585</v>
@@ -10964,19 +10964,19 @@
         <v>481805</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>444892</v>
+        <v>446492</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>517465</v>
+        <v>518951</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.450555926617152</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4160369155767535</v>
+        <v>0.417533383496311</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4839032448243021</v>
+        <v>0.485293467414694</v>
       </c>
     </row>
     <row r="32">
@@ -10993,19 +10993,19 @@
         <v>95490</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>71328</v>
+        <v>72931</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>119043</v>
+        <v>118178</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4092887920600943</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3057275197362876</v>
+        <v>0.3125956518975341</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5102415999727874</v>
+        <v>0.5065322780950454</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>497</v>
@@ -11014,19 +11014,19 @@
         <v>371701</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>344212</v>
+        <v>346406</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>400487</v>
+        <v>403162</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4445925388805252</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4117132015621828</v>
+        <v>0.4143366665493988</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4790235673921929</v>
+        <v>0.4822229542015632</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>547</v>
@@ -11035,19 +11035,19 @@
         <v>467191</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>429472</v>
+        <v>432737</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>503524</v>
+        <v>501241</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4368901314727965</v>
+        <v>0.4368901314727964</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4016177031965236</v>
+        <v>0.4046710635993319</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4708663922756263</v>
+        <v>0.4687320935897839</v>
       </c>
     </row>
     <row r="33">
@@ -11139,19 +11139,19 @@
         <v>253589</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>222870</v>
+        <v>222885</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>290210</v>
+        <v>291281</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.07426152372305188</v>
+        <v>0.07426152372305186</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06526577627890577</v>
+        <v>0.06526993796367606</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08498557101894487</v>
+        <v>0.08529940437180737</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>101</v>
@@ -11160,19 +11160,19 @@
         <v>77501</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>63874</v>
+        <v>63001</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>95609</v>
+        <v>93509</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02144344068222636</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01767302872642547</v>
+        <v>0.01743148771812636</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02645370212100624</v>
+        <v>0.02587272440463987</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>321</v>
@@ -11181,19 +11181,19 @@
         <v>331090</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>297943</v>
+        <v>295633</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>372835</v>
+        <v>370983</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04710340199102366</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04238771806802919</v>
+        <v>0.04205910590592243</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05304248526331487</v>
+        <v>0.05277893754132012</v>
       </c>
     </row>
     <row r="35">
@@ -11210,19 +11210,19 @@
         <v>718480</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>666430</v>
+        <v>667097</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>772126</v>
+        <v>773392</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2104010075541758</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1951588148909331</v>
+        <v>0.1953541105891855</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2261110404535751</v>
+        <v>0.2264817353743711</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>837</v>
@@ -11231,19 +11231,19 @@
         <v>609931</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>572220</v>
+        <v>571295</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>649035</v>
+        <v>653011</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1687603550798499</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1583261628632468</v>
+        <v>0.1580702019488144</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1795798868955825</v>
+        <v>0.1806800627966672</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1495</v>
@@ -11252,19 +11252,19 @@
         <v>1328411</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1262067</v>
+        <v>1263562</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1394789</v>
+        <v>1391275</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1889901224218109</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1795515394718301</v>
+        <v>0.1797642201479218</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1984335271098014</v>
+        <v>0.1979336083130614</v>
       </c>
     </row>
     <row r="36">
@@ -11281,19 +11281,19 @@
         <v>1243205</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1176758</v>
+        <v>1181530</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1304293</v>
+        <v>1307755</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.364062639638606</v>
+        <v>0.3640626396386059</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3446042002106158</v>
+        <v>0.3460017242241667</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3819517622149791</v>
+        <v>0.3829655310961</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2462</v>
@@ -11302,19 +11302,19 @@
         <v>1683381</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1630028</v>
+        <v>1629106</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1737674</v>
+        <v>1735140</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.4657706922254986</v>
+        <v>0.4657706922254985</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4510084868753623</v>
+        <v>0.4507532690360255</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4807927506416369</v>
+        <v>0.4800915683615025</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3656</v>
@@ -11323,19 +11323,19 @@
         <v>2926587</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2833012</v>
+        <v>2848405</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3013279</v>
+        <v>3011558</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4163591167967663</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4030463434467766</v>
+        <v>0.405236290500975</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4286925546581051</v>
+        <v>0.4284477639807463</v>
       </c>
     </row>
     <row r="37">
@@ -11352,19 +11352,19 @@
         <v>1199537</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1139582</v>
+        <v>1138424</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1261002</v>
+        <v>1258361</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.3512748290841666</v>
+        <v>0.3512748290841665</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3337173469164384</v>
+        <v>0.3333782447143839</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.369274390909936</v>
+        <v>0.3685010264582644</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1818</v>
@@ -11373,19 +11373,19 @@
         <v>1243372</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1191012</v>
+        <v>1196799</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1294541</v>
+        <v>1294242</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3440255120124252</v>
+        <v>0.3440255120124251</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3295381299311531</v>
+        <v>0.3311394719342297</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3581832585084255</v>
+        <v>0.358100772870335</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3029</v>
@@ -11394,19 +11394,19 @@
         <v>2442909</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2365398</v>
+        <v>2369138</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2519239</v>
+        <v>2525885</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3475473587903989</v>
+        <v>0.347547358790399</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.336519939621881</v>
+        <v>0.3370520875933569</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3584065893899474</v>
+        <v>0.3593520727466925</v>
       </c>
     </row>
     <row r="38">
